--- a/misciliniustemplate.xlsx
+++ b/misciliniustemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kvrbilling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07104D2-8102-4DEA-A5CA-30F589C411AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A41195-090D-4933-A18B-680BEFD94A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,50 +790,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="exel_logo.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12365355" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2019303</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -859,7 +815,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1175,7 +1131,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
